--- a/data-raw/Baltimore_corridor_crosswalk.xlsx
+++ b/data-raw/Baltimore_corridor_crosswalk.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brookingsinstitution-my.sharepoint.com/personal/cgeorge_brookings_edu/Documents/Caroline R/economic-values-atlas/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7437A39-5D9F-4211-BA23-5DC22A8D6E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E7437A39-5D9F-4211-BA23-5DC22A8D6E07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB0D453E-BB3F-41FB-B954-B83C18B68716}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{34344188-00FC-4634-B2B1-092AAD47EEBB}"/>
+    <workbookView xWindow="16690" yWindow="-350" windowWidth="19420" windowHeight="10420" xr2:uid="{34344188-00FC-4634-B2B1-092AAD47EEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$45</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">Sheet1!$J$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -426,10 +430,14 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
